--- a/src/main/resources/Qa_TestData.xlsx
+++ b/src/main/resources/Qa_TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16065" windowHeight="6180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPasswordPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UserPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
@@ -41,20 +42,20 @@
     <t>The email must be a valid email address.</t>
   </si>
   <si>
-    <t>Maxfest Enterprises PVT LTD,Kochi</t>
-  </si>
-  <si>
     <t>Welcome XYZ,</t>
   </si>
   <si>
     <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>jeffry.jose86@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +96,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,12 +125,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -125,6 +153,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,7 +457,7 @@
         <v>123456</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -443,7 +474,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,24 +485,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -481,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -505,4 +536,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>